--- a/PyLUCCBA/examples/Forest-Cropland_CP=WEO2015-CPS/_values.xlsx
+++ b/PyLUCCBA/examples/Forest-Cropland_CP=WEO2015-CPS/_values.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/PyLUCCBA/examples/Forest-Cropland_CP=WEO2015-CPS/_values.xlsx
+++ b/PyLUCCBA/examples/Forest-Cropland_CP=WEO2015-CPS/_values.xlsx
@@ -26,40 +26,40 @@
     <t>co2_prices_traj</t>
   </si>
   <si>
-    <t>timed_cult_co2_flows_value</t>
-  </si>
-  <si>
-    <t>timed_proc_co2_flows_value</t>
-  </si>
-  <si>
-    <t>timed_proc_plus_cult_co2_flows_value</t>
-  </si>
-  <si>
-    <t>timed_so_diff_co2_flows_value</t>
-  </si>
-  <si>
-    <t>timed_vg_diff_co2_flows_value</t>
-  </si>
-  <si>
-    <t>timed_so_plus_vg_diff_co2_flows_value</t>
-  </si>
-  <si>
-    <t>timed_so_unif_co2_flows_value</t>
-  </si>
-  <si>
-    <t>timed_vg_unif_co2_flows_value</t>
-  </si>
-  <si>
-    <t>timed_so_plus_vg_unif_co2_flows_value</t>
-  </si>
-  <si>
-    <t>timed_total_diff_co2_flows_value</t>
-  </si>
-  <si>
-    <t>timed_total_unif_co2_flows_value</t>
-  </si>
-  <si>
-    <t>timed_black_output_co2_flows_value</t>
+    <t>timed_cult_co2_flows_traj_values</t>
+  </si>
+  <si>
+    <t>timed_proc_co2_flows_traj_values</t>
+  </si>
+  <si>
+    <t>timed_proc_plus_cult_co2_flows_traj_values</t>
+  </si>
+  <si>
+    <t>timed_so_diff_co2_flows_traj_values</t>
+  </si>
+  <si>
+    <t>timed_vg_diff_co2_flows_traj_values</t>
+  </si>
+  <si>
+    <t>timed_so_plus_vg_diff_co2_flows_traj_values</t>
+  </si>
+  <si>
+    <t>timed_so_unif_co2_flows_traj_values</t>
+  </si>
+  <si>
+    <t>timed_vg_unif_co2_flows_traj_values</t>
+  </si>
+  <si>
+    <t>timed_so_plus_vg_unif_co2_flows_traj_values</t>
+  </si>
+  <si>
+    <t>timed_total_diff_co2_flows_traj_values</t>
+  </si>
+  <si>
+    <t>timed_total_unif_co2_flows_traj_values</t>
+  </si>
+  <si>
+    <t>timed_black_output_co2_flows_traj_values</t>
   </si>
   <si>
     <t>discounting_factors</t>
@@ -68,40 +68,40 @@
     <t>co2_disc_prices_traj</t>
   </si>
   <si>
-    <t>timed_cult_co2_flows_disc_value</t>
-  </si>
-  <si>
-    <t>timed_proc_co2_flows_disc_value</t>
-  </si>
-  <si>
-    <t>timed_proc_plus_cult_co2_flows_disc_value</t>
-  </si>
-  <si>
-    <t>timed_so_diff_co2_flows_disc_value</t>
-  </si>
-  <si>
-    <t>timed_vg_diff_co2_flows_disc_value</t>
-  </si>
-  <si>
-    <t>timed_so_plus_vg_diff_co2_flows_disc_value</t>
-  </si>
-  <si>
-    <t>timed_so_unif_co2_flows_disc_value</t>
-  </si>
-  <si>
-    <t>timed_vg_unif_co2_flows_disc_value</t>
-  </si>
-  <si>
-    <t>timed_so_plus_vg_unif_co2_flows_disc_value</t>
-  </si>
-  <si>
-    <t>timed_total_diff_co2_flows_disc_value</t>
-  </si>
-  <si>
-    <t>timed_total_unif_co2_flows_disc_value</t>
-  </si>
-  <si>
-    <t>timed_black_output_co2_flows_disc_value</t>
+    <t>timed_cult_co2_flows_traj_disc_values</t>
+  </si>
+  <si>
+    <t>timed_proc_co2_flows_traj_disc_values</t>
+  </si>
+  <si>
+    <t>timed_proc_plus_cult_co2_flows_traj_disc_values</t>
+  </si>
+  <si>
+    <t>timed_so_diff_co2_flows_traj_disc_values</t>
+  </si>
+  <si>
+    <t>timed_vg_diff_co2_flows_traj_disc_values</t>
+  </si>
+  <si>
+    <t>timed_so_plus_vg_diff_co2_flows_traj_disc_values</t>
+  </si>
+  <si>
+    <t>timed_so_unif_co2_flows_traj_disc_values</t>
+  </si>
+  <si>
+    <t>timed_vg_unif_co2_flows_traj_disc_values</t>
+  </si>
+  <si>
+    <t>timed_so_plus_vg_unif_co2_flows_traj_disc_values</t>
+  </si>
+  <si>
+    <t>timed_total_diff_co2_flows_traj_disc_values</t>
+  </si>
+  <si>
+    <t>timed_total_unif_co2_flows_traj_disc_values</t>
+  </si>
+  <si>
+    <t>timed_black_output_co2_flows_traj_disc_values</t>
   </si>
 </sst>
 </file>
